--- a/DOWNLOADS/EDITAIS/U_926768_E_900042025_02-10-2025_09h00m/U_926768_E_900042025_02-10-2025_09h00m_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_926768_E_900042025_02-10-2025_09h00m/U_926768_E_900042025_02-10-2025_09h00m_master.xlsx
@@ -280,19 +280,19 @@
     <t>Cartucho de Toner HP85A, novo, primeiro uso, não remanufaturado, original HP.</t>
   </si>
   <si>
-    <t>Cartucho de Toner para impressora Brother TN-3382N, original Brother, novo, primeiro uso, não remanufaturado., rendimento aproximado 8000 páginas</t>
+    <t>Cartucho de Toner para impressora Brother TN-3382, original Brother, novo, primeiro uso, não remanufaturado., rendimento aproximado 8000 páginas</t>
   </si>
   <si>
     <t>Cartucho de Cilindro Brother DR3302, original Brother, novo, primeiro uso, não remanufaturado. Para impressora DCP-8152DN</t>
   </si>
   <si>
-    <t>Unidade de Fusão Brother LIB693001, nova versão, 115v, original Brother compatível com Impressora DCP-8152DN</t>
+    <t>Unidade de Fusão Brother LJB693001, nova versão, 115v, original Brother compatível com Impressora DCP-8152DN</t>
   </si>
   <si>
     <t>Unidade Laser Brother DCP8152 mfc8952dw Lu9361001</t>
   </si>
   <si>
-    <t>Unidade Laser Brother DCP5652 |I5652DN DOO22cOO1 Original</t>
+    <t>Unidade Laser Brother DCP5652 I5652DN D002zc001 Original</t>
   </si>
   <si>
     <t>Cartucho de Toner Brother TN- 3472BR, original Brother, novo, primeiro uso, não remanufaturado. Para Multifuncional Brother DCP-L5652DN,</t>
@@ -301,16 +301,16 @@
     <t>Cartucho de Cilindro Brother DR3440BR, original Brother.</t>
   </si>
   <si>
-    <t>Garrafa de tinta Epson — T544120-AL — PRETA, original Epson, 65ml, para impressora EPSON L3210</t>
-  </si>
-  <si>
-    <t>Garrafa de tinta Epson — T544220-AL - AZUL, original Epson, 65ml, para impressora EPSON L3210</t>
-  </si>
-  <si>
-    <t>Garrafa de tinta Epson — T544320-AL — VERMELHA, original Epson, 65ml, para impressora EPSON 3210</t>
-  </si>
-  <si>
-    <t>Garrafa de tinta Epson — T544420-AL — AMARELA, original Epson, 65ml, para impressora EPSON 3210</t>
+    <t>Garrafa de tinta Epson – T544120-AL – PRETA, original Epson, 65ml, para impressora EPSON L3210</t>
+  </si>
+  <si>
+    <t>Garrafa de tinta Epson – T544220-AL - AZUL, original Epson, 65ml, para impressora EPSON L3210</t>
+  </si>
+  <si>
+    <t>Garrafa de tinta Epson – T544320-AL – VERMELHA, original Epson, 65ml, para impressora EPSON 3210</t>
+  </si>
+  <si>
+    <t>Garrafa de tinta Epson – T544420-AL – AMARELA, original Epson, 65ml, para impressora EPSON 3210</t>
   </si>
   <si>
     <t>*HD SSD 480GB - 500mb/s para Leitura; 450mb/s para Gravação. Deverá ser acondicionado em embalagem antiestática metalizada, e externamente, preferencialmente, em caixa com divisores ou blister individual para correta proteção do HD</t>
@@ -337,7 +337,7 @@
     <t>*Mouse óptico, Conexão USB; Dois Botões, com Scroll; Resolução mínima de 1200 dpi. Deverá ser entregue em embalagem original.</t>
   </si>
   <si>
-    <t>*Teclado multimídia, com fio, USB, padrão ABNT II, Arranjo QWERTY com no mínimo 19 teclas de atalho. Deverá ser entregue em embalagem original.</t>
+    <t>*Teclado multimídia, com fio, USB, padrão ABNT II, arranjo QWERTY, com no mínimo 19 teclas de atalho. Deverá ser entregue em embalagem original.</t>
   </si>
   <si>
     <t>*Caixa de som para computador, 5W R.M.S. 2w ou superior, USB. Deverá ser entregue em embalagem original.</t>
@@ -349,52 +349,52 @@
     <t>*Placa de Vídeo Geforce GTX 1050 4gb Gddr5 128bits DVI/HDMI/DP - PCIE</t>
   </si>
   <si>
-    <t>Carregador de pilha AA/AAA, bivolt, 1000Mah, modelo CBO45, para pilhas recarregáveis Ni-Mh e Ni-Cd, espaço para recarregar 4 pilhas por vez; - Deve atender os padrões e ser compatível com as pilhas adquiridas — Marca de referência: Elgin ou Multilaser Modelo mínimo de referência: 46RSCUSBOOOO ou CB 045</t>
-  </si>
-  <si>
-    <t>Pilha AA recarregável - Cartela com 04 pilhas recarregáveis de íon de lítio tamanho AA, 4900mMAh tensão nominal 1,2V. Características — adicionais: não conter mercúrio e Cádmio, data de validade no produto ou na embalagem, validade de no mínimo 2 anos, dados do fabricante/importador/distribuidor descritos na embalagem, que deve apresentar textos em português com orientações de uso do produto e símbolo orientando destinação após uso. Marca mínimo de referência: Elgin Modelo de referência: 82175</t>
-  </si>
-  <si>
-    <t>Bateria de lítio, CR 2032, tensão padrão 3V, cartela com 5 unidades</t>
-  </si>
-  <si>
-    <t>Almofada/Esponja feltro compatível com impressora Epson L3210/ L3250</t>
+    <t>Carregador de pilha AA/AAA, bivolt, 1000Mah, modelo CB045, para pilhas recarregáveis Ni-Mh e Ni-Cd, espaço para recarregar 4 pilhas por vez; - Deve atender os padrões e ser compatível com as pilhas adquiridas – Marca de referência: Elgin ou Multilaser Modelo mínimo de referência: 46RSCUSB0000 ou CB 045</t>
+  </si>
+  <si>
+    <t>Pilha AA recarregável - Cartela com 04 pilhas recarregáveis de íon de lítio tamanho AA, 4900mAh tensão nominal 1,2V. Características adicionais: não conter mercúrio e Cádmio, data de validade no produto ou na embalagem, validade de no mínimo 2 anos, dados do fabricante/importador/distribuidor descritos na embalagem, que deve apresentar textos em português com orientações de uso do produto e símbolo orientando destinação pós uso. Marca mínimo de referência: Elgin</t>
+  </si>
+  <si>
+    <t>Bateria de lítio, CR2032, tensão padrão 3V, cartela com 5 unidades</t>
+  </si>
+  <si>
+    <t>Almofada/Esponja feltro compatível com impressora Epson L3210/ L3250.</t>
   </si>
   <si>
     <t>Cabeça de Impressão Original Epson compatível com impressora L3210/ L3250</t>
   </si>
   <si>
-    <t>Mouse Pad Gamer — Tecido Base Emborrachada Antiderrapante</t>
-  </si>
-  <si>
-    <t>* COMPUTADOR ALL IN ONE COM SUPORTE, MONITOR TECLADO E MOUSE (COM FIO) com as seguintes características mínimas: Processador Intel Core i5 (mínimo 14º Geração), frequência mínima de 2,6 Ghz ou superior; Memória: 8 Gb DDR5 (1x8GB) 5600MT/s HD: SSD de 256GB PCle NVMe M.2 (Classe 35) Sistema operacional: Windows 10 ou 11 (original de fábrica); Conexões Display Port; VGA; 1x Jack Microfone; Placa gráfica Intel integrada; Rede local Ethernet Intel 10/100/1000 Mbps onboard (na placa de sistema); USB 3.0: 2 (1 frontal e 1 na traseira); USB 2.0: 4 (3 traseiras e 1 frontal); ENERGIA: Fonte ATX Bivolt 110V/220V. TECLADO MULTIMÍDIA, Com fio, preto, em Português (Brasil, ABNT 2; (obrigatoriamente do mesmo fabricante da CPU). O teclado deverá, obrigatoriamente, ser do mesmo fabricante do equipamento fornecido, não sendo aceito o regime de OEM (Original Equipment Manufacturer) e possuir a mesma tonalidade do gabinete (cor); Padrão ABNT 2; Com todos os caracteres da Língua Portuguesa, inclusive “Ç”; O conector deverá ser USB, vedado o uso de qualquer adaptador ou conversor de padrão, com respectivo cabo para conexão. Deverá possuir bloco numérico separado das demais teclas; Deverá possuir teclas ou combinação de teclas com no mínimo as seguintes funções: Volume, mudo, leitura/pausa, retrocesso, avanço. MOUSE, O mouse deverá, obrigatoriamente, ser do mesmo fabricante do equipamento fornecido, não sendo aceito o regime de OEM (Original Equipment Manufacturer) e possuir a mesma tonalidade do gabinete; Dispositivo dotado com 3 botões (sendo um botão para rolagem de telas — “scroll”); Com tecnologia óptica (sem esfera); Deve funcionar sobre qualquer superfície compatível com tecnologia óptica, não necessitando nenhum tipo de PAD especial; Resolução mínima de 1000 dpi; Deverá ser Plug-and-Play; O conector deverá ser USB, vedado o uso de qualquer adaptador ou conversor de padrão, com respectivo cabo para conexão; Deverá ser acompanhado de mouse-pad; - MONITOR, Deverá ser do mesmo FABRICANTE da solução ofertada; 100% plana de LED com dimensões de 21.5 Polegadas ou maior. Deverá permitir rotação retrato/paisagem; O monitor deverá possuir regulagem de altura, inclinação e giro (eixo horizontal); Resolução: suporte à resolução de: 1920x1080 a uma frequência horizontal de 60Hz; Possuir tecnologia antirreflexo; Acompanhar todos os cabos e acessórios necessários para seu funcionamento. - Suporte, tipo all in one, para acoplar o computador ao monitor, original ou homologado pelo fabricante do equipamento; Observações: todos componentes deste item devem ser compatíveis entre si, prontos de fábrica, sem adaptações ou adaptadores. Deverão acompanhar todos os cabos e acessórios necessários para O pleno funcionamento. Deverão ser entregues junto com os equipamentos, uma lista de assistências técnicas autorizadas, manual do equipamento em português e certificado de garantia e assistência técnica de 3 anos. PADRÃO DE QUALIDADE MÍNIMA: Dell/Optiplex Micro Garantia total de 36 meses on-site fornecida pelo fabricante com atendimento em até 3 dias úteis; a garantia será consultada no site do fabricante no momento do aceite para verificação da conformidade.</t>
-  </si>
-  <si>
-    <t>*COMPUTADOR ALL IN ONE COM SUPORTE, MONITOR TECLADO E MOUSE (COM FIO) com as seguintes características mínimas: Processador Intel Core i7 (última Geração), frequência mínima de 2,6 Ghz ou superior; Memória: 16 Gb DDR5; HD: 512GB SSD/M.2; Sistema operacional: Windows 10 ou 11 (original de fábrica); Conexões Display Port; VGA; 1x Jack Microfone; Placa gráfica Intel integrada; Rede local Ethernet Intel 10/100/1000 Mbps onboard (na placa de sistema); USB 3.0: 2 (1 frontal e 1 na traseira); USB 2.0: 4 (3 traseiras e 1 frontal); ENERGIA: Fonte ATX Bivolt 110V/220V. TECLADO MULTIMÍDIA, Com fio, preto, em Português (Brasil, ABNT 2; (obrigatoriamente do mesmo fabricante da CPU). O teclado deverá, obrigatoriamente, ser do mesmo fabricante do equipamento fornecido, não sendo aceito o regime de OEM (Original Equipment Manufacturer) e possuir a mesma tonalidade do gabinete (cor); Padrão ABNT 2; Com todos os caracteres da Língua Portuguesa, inclusive “Ç”; O conector deverá ser USB, vedado o uso de qualquer adaptador ou conversor de padrão, com respectivo cabo para conexão. Deverá possuir bloco numérico separado das demais teclas; Deverá possuir teclas ou combinação de teclas com no mínimo as seguintes funções: Volume, mudo, leitura/pausa, retrocesso, avanço. - MOUSE, O mouse deverá, obrigatoriamente, ser do mesmo fabricante do equipamento fornecido, não sendo aceito o regime de OEM (Original Equipment Manufacturer) e possuir a mesma tonalidade do gabinete; Dispositivo dotado com 3 botões (sendo um botão para rolagem de telas — “scroll”); Com tecnologia óptica (sem esfera); Deve funcionar sobre qualquer superfície compatível com tecnologia óptica, não necessitando nenhum tipo de PAD especial; Resolução mínima de 1000 dpi; Deverá ser Plug-and-Play; O conector deverá ser USB, vedado o uso de qualquer adaptador ou conversor de padrão, com respectivo cabo para conexão; Deverá ser acompanhado de mouse-pad; - MONITOR, Deverá ser do mesmo FABRICANTE da solução ofertada; 100% plana de LED com dimensões de 21.5 Polegadas ou maior. Deverá permitir rotação retrato/paisagem; O monitor deverá possuir regulagem de altura, inclinação e giro (eixo horizontal); Resolução: suporte à resolução de: 1920x1080 a uma frequência horizontal de 60Hz; Possuir tecnologia antirreflexo; Acompanhar todos os cabos e acessórios necessários para seu funcionamento. - Suporte, tipo all in one, para acoplar o computador ao monitor, original ou homologado pelo fabricante do equipamento; Observações: todos componentes deste item devem ser compatíveis entre si, prontos de fábrica, sem adaptações ou adaptadores. Deverão acompanhar todos os cabos e acessórios necessários para O pleno funcionamento. Deverão ser entregues junto com os equipamentos, uma lista de assistências técnicas autorizadas, manual do equipamento em português e certificado de garantia e assistência técnica de 3 anos. PADRÃO DE QUALIDADE MÍNIMA: Dell/Optiplex Micro -Assistência técnica e garantia, 3 anos, on site, do fabricante, com atendimento em até 3 dias úteis;, a garantia será consultada no site do fabricante no momento do aceite para verificação da conformidade. PADRÃO DE QUALIDADE MÍNIMA: Dell Optiplex</t>
-  </si>
-  <si>
-    <t>*IMPRESSORA MULTIFUNCIONAL TANQUE DE TINTA, COM CONEXÃO WIRELESS, com as seguintes especificações mínimas: Multifuncional, tanque de tinta, imprime, digitaliza e copia, que imprime até 4.500 páginas em preto e 7.500 páginas coloridas com cada kit de garrafas de reposição original. Velocidade máxima de até 33 ppm5 em preto e 15 ppm5 em cores, com tanques frontais que permitem fácil acesso e visualização dos níveis de tinta. Conexão USB Conectividade avançada com recursos Wi-Fi, Wi-Fi Direct e impressão a partir de dispositivos móveis. Garantia Mínima de 1 ano. Cor: Preta; Garantia: 1 ano de garantia (12 Meses) PADRÃO DE QUALIDADE MÍNIMA: EPSON/L3250</t>
-  </si>
-  <si>
-    <t>* IMPRESSORA LASERJET MONO com as seguintes especificações mínimas: Monocromática, imprime, Conectividade: USB 2.0 de alta velocidade e WIFI , 20PPM, Bandeja de entrada para 150 folhas- Escaninho de saída para 100 folhas; Garantia total de 12 meses PADRÃO DE QUALIDADE MÍNIMA: Impressora Brother HL-L1232; Impressora HP Laser 107w</t>
-  </si>
-  <si>
-    <t>*Switch de rede, 24 portas gigabit (/1000), todas as portas deverão ser gerenciáveis.</t>
-  </si>
-  <si>
-    <t>*ROTEADOR WI-FI DUAL BAND 4 ANTENAS externas, funções Access point, Roteador, Sistema wi-fi mesh, Repetidor, 1200 mbps, velocidade wireless 108.375 MB/s. MODELO DE REFERÊNCIA: Intelbras W5-1200G</t>
-  </si>
-  <si>
-    <t>*MONITOR LED ERGONÔMICO 19.5" com Ajuste de altura - Ajuste de rotação 90º, horizontal - Ajuste de rotação vertical - Ajuste de inclinação, Widescreen, 2ms, 75Hz, HD+, HDMI, VGA, VESA MODELO DE REFERÊNCIA: 3 Green Pro 1953G</t>
-  </si>
-  <si>
-    <t>Memória para Notebook DDR4 Adata, 16GB, 3200MHz Velocidade de transmissão de dados 12 Gigabits Per Second</t>
-  </si>
-  <si>
-    <t>*Smart TV HD LED 32” Wi-Fi HDR Widescreen 2 HDMI 1 USB 1 Ethernet (LAN), 1 Saída de Áudio Digital (Óptica) e 1 Entrada de RF (terrestre/entrada de cabo); espelhamento de smartphone para TV; 60Hz de frequência. Controle Remoto com pilhas. 12 meses de garantia</t>
-  </si>
-  <si>
-    <t>*NOTEBOOK Processador Intel Core i5 1235U de 12º geração 1.3Ghz- Tela: Full HD de 15.6" (1920 x 1080), 120 Hz, WVAs - SSD de 512GB PCle NVMe M.2 - Memória RAM: 8gb - Sistema operacional Windows 11 Home Portas: no mínimo 2 portas USB 3.2; NO MÍNIMO 1 PORTA USB-C; 1 porta Audio Jack;1 porta HDMI; 1 porta RJ45 ; Câmera HD de 720p a 30FPS com microfone único integrado. Teclado: Portugues-BR, Webcam e microfone integrados ,deverá possuir: WIFI, BLUETOOTH, vir acompanhado de fonte carregadora, manual em português, Maleta para transporte e possuir GARANTIA DO FABRICANTE DE 12 MESES</t>
+    <t>Mouse Pad Gamer Tecido Base Emborrachada Antiderrapante.</t>
+  </si>
+  <si>
+    <t>* COMPUTADOR ALL IN ONE COM SUPORTE, MONITOR TECLADO E MOUSE (COM FIO) com as seguintes características mínimas: Processador Intel Core I5 (mínimo 14º Geração), frequência mínima de 2,6 Ghz ou superior; Memória: 8Gb DDR5 (1x8GB) 5600 MT/s HD: SSD de 256GB PCIe NVMe M.2 (Classe 35) Sistema operacional: Windows 10 ou 11 (original de fábrica); Conexões Display Port; VGA; 1x Jack Microfone; Placa gráfica Intel integrada; Rede local Ethernet Intel 10/100/1000 Mbps onboard (na placa de sistema); USB 3.0: 2 (1 frontal e 1 na traseira); USB 2.0: 4 (3 traseiras e 1 frontal); ENERGIA: Fonte ATX Bivolt 110V/220V. TECLADO MULTIMÍDIA, Com fio, preto, em Português (Brasil), ABNT2; (obrigatoriamente do mesmo fabricante da CPU). O teclado deverá, obrigatoriamente, ser do mesmo fabricante do equipamento fornecido, não sendo aceito o regime de OEM (Original Equipment Manufacturer) e possuir a mesma tonalidade do gabinete (cor); Padrão ABNT2; Com todos os caracteres da Língua Portuguesa, inclusive “Ç”; O conector deverá ser USB, vedado o uso de qualquer adaptador ou conversor de padrão, com respectivo cabo para conexão. Deverá possuir bloco numérico separado das demais teclas; Deverá possuir teclas ou combinação de teclas com no mínimo as seguintes funções: Volume, mudo, leitura/pausa, retrocesso, avanço. - MOUSE, O mouse deverá, obrigatoriamente, ser do mesmo fabricante do equipamento fornecido, não sendo aceito o regime de OEM (Original Equipment Manufacturer) e possuir a mesma tonalidade do gabinete; Dispositivo dotado com 3 botões (sendo um botão para rolagem de telas – “scroll”); Com tecnologia óptica (sem esfera); Deve funcionar sobre qualquer superfície compatível com tecnologia óptica, não necessitando nenhum tipo de PAD especial; Resolução mínima de 1000 dpi; Deverá ser Plug-and-Play; O conector deverá ser USB, vedado o uso de qualquer adaptador ou conversor de padrão, com respectivo cabo para conexão; Deverá ser acompanhado de mouse-pad; - MONITOR, Deverá ser do mesmo fabricante da solução ofertada; 100% plana de LED com dimensões de 21.5 Polegadas ou maior. Deverá permitir rotação retrato/paisagem; O monitor deverá possuir regulagem de altura, inclinação e giro (eixo horizontal); Resolução: suporte à resolução de: 1920x1080 a uma freqüência horizontal de 60Hz; Possuir tecnologia antirreflexo; Acompanhar todos os cabos e acessórios necessários para seu funcionamento. - Suporte, tipo all in one, para acoplar o computador ao monitor, original ou homologado pelo fabricante do equipamento; Observações: todos componentes deste item devem ser compatíveis entre si, prontos de fábrica, sem adaptações ou adaptadores. Deverão acompanhar todos os cabos e acessórios necessários para o pleno funcionamento. Deverão ser entregues junto com os equipamentos, uma lista de assistências técnicas autorizadas, manual do equipamento em português e certificado de garantia e assistência técnica de 3 anos. -Assistência técnica e garantia: 3 anos, on site, do fabricante, com atendimento em até 3 dias úteis; a garantia será consultada no site do fabricante no momento do aceite para verificação da conformidade.</t>
+  </si>
+  <si>
+    <t>*COMPUTADOR ALL IN ONE COM SUPORTE, MONITOR TECLADO E MOUSE (COM FIO) com as seguintes características mínimas: Processador Intel Core I7 (última Geração), frequência mínima de 2,6 Ghz ou superior; Memória: 16 Gb DDR5; HD: 512GB SSD/M.2; Sistema operacional: Windows 10 ou 11 (original de fábrica); Conexões Display Port; VGA; 1x Jack Microfone; Placa gráfica Intel integrada; Rede local Ethernet Intel 10/100/1000 Mbps onboard (na placa de sistema); USB 3.0: 2 (1 frontal e 1 na traseira); USB 2.0: 4 (3 traseiras e 1 frontal); ENERGIA: Fonte ATX Bivolt 110V/220V. TECLADO MULTIMÍDIA, Com fio, preto, em Português (Brasil), ABNT2; (obrigatoriamente do mesmo fabricante da CPU). O teclado deverá, obrigatoriamente, ser do mesmo fabricante do equipamento fornecido, não sendo aceito o regime de OEM (Original Equipment Manufacturer) e possuir a mesma tonalidade do gabinete (cor); Padrão ABNT2; Com todos os caracteres da Língua Portuguesa, inclusive “Ç”; O conector deverá ser USB, vedado o uso de qualquer adaptador ou conversor de padrão, com respectivo cabo para conexão. Deverá possuir bloco numérico separado das demais teclas; Deverá possuir teclas ou combinação de teclas com no mínimo as seguintes funções: Volume, mudo, leitura/pausa, retrocesso, avanço. - MOUSE, O mouse deverá, obrigatoriamente, ser do mesmo fabricante do equipamento fornecido, não sendo aceito o regime de OEM (Original Equipment Manufacturer) e possuir a mesma tonalidade do gabinete; Dispositivo dotado com 3 botões (sendo um botão para rolagem de telas – “scroll”); Com tecnologia óptica (sem esfera); Deve funcionar sobre qualquer superfície compatível com tecnologia óptica, não necessitando nenhum tipo de PAD especial; Resolução mínima de 1000 dpi; Deverá ser Plug-and-Play; O conector deverá ser USB, vedado o uso de qualquer adaptador ou conversor de padrão, com respectivo cabo para conexão; Deverá ser acompanhado de mouse-pad; - MONITOR, Deverá ser do mesmo fabricante da solução ofertada; 100% plana de LED com dimensões de 21.5 Polegadas ou maior. Deverá permitir rotação retrato/paisagem; O monitor deverá possuir regulagem de altura, inclinação e giro (eixo horizontal); Resolução: suporte à resolução de: 1920x1080 a uma freqüência horizontal de 60Hz; Possuir tecnologia antirreflexo; Acompanhar todos os cabos e acessórios necessários para seu funcionamento. - Suporte, tipo all in one, para acoplar o computador ao monitor, original ou homologado pelo fabricante do equipamento; Observações: todos componentes deste item devem ser compatíveis entre si, prontos de fábrica, sem adaptações ou adaptadores. Deverão acompanhar todos os cabos e acessórios necessários para o pleno funcionamento. Deverão ser entregues junto com os equipamentos, uma lista de assistências técnicas autorizadas, manual do equipamento em português e certificado de garantia e assistência técnica de 3 anos. -Assistência técnica e garantia: 3 anos, on site, do fabricante, com atendimento em até 3 dias úteis; a garantia será consultada no site do fabricante no momento do aceite para verificação da conformidade.</t>
+  </si>
+  <si>
+    <t>*IMPRESSORA MULTIFUNCIONAL TANQUE DE TINTA, COM CONEXÃO WIRELESS, com as seguintes especificações mínimas: Multifuncional, tanque de tinta, imprime, digitaliza e copia, que imprime até 4.500 páginas em preto e 7.500 páginas coloridas com cada kit de garrafas de reposição original. Velocidade máxima de até 33 ppm 5 em preto e 15 ppm 5 em cores, com tanques frontais que permitem fácil acesso e visualização dos níveis de tinta. Conexão USB, conectividade avançada com recursos Wi-Fi, Wi-Fi Direct e impressão a partir de dispositivos móveis. Garantia: 1 ano de garantia (12 Meses)</t>
+  </si>
+  <si>
+    <t>* IMPRESSORA LASERJET MONO com as seguintes especificações mínimas: Monocromática, imprime, Conectividade: USB 2.0 de alta velocidade e WIFI , 20PPM, Bandeja de entrada para 150 folhas- Escaninho de saída para 100 folhas; Garantia total de 12 meses</t>
+  </si>
+  <si>
+    <t>*Switch de rede, 24 portas gigabit (/1000), todas as portas deverão ser gerenciáveis. Garantia do fabricante: 1 ano de garantia (12 Meses)</t>
+  </si>
+  <si>
+    <t>*ROTEADOR WI-FI DUAL BAND 4 ANTENAS externas, funções Access point, Roteador, Sistema wi-fi mesh, Repetidor, 1200 mbps, velocidade wireless 108.375 MB/s.</t>
+  </si>
+  <si>
+    <t>*MONITOR LED ERGONÔMICO 19.5" Ajuste de altura - Ajuste de rotação 90°, horizontal - Ajuste de rotação vertical - Ajuste de inclinação, Widescreen, 2ms, 75Hz, HD +, HDMI, VESA. Garantia do fabricante: 1 ano de garantia (12 Meses)</t>
+  </si>
+  <si>
+    <t>Memória para Notebook DDR4, 16GB, 3200MHz Velocidade de transmissão de dados ‎12 Gigabits /seg..</t>
+  </si>
+  <si>
+    <t>*Smart TV HD LED 32” Wi-Fi HDR Widescreen 2 HDMI 1 USB 1 Ethernet (LAN), 1 Saída de Áudio Digital (Óptica) e 1 Entrada de RF (terrestre/entrada de cabo); espelhamento de smartphone para TV; 60Hz de frequência. Controle Remoto com pilhas. Garantia: 1 ano de garantia (12 Meses)</t>
+  </si>
+  <si>
+    <t>*NOTEBOOK Processador Intel Core i5 1235U de 12ª geração 1.3Ghz Tela: Full HD de 15.6" (1920 x 1080), 120 Hz, WVAs SSD de 512GB PCIe NVMe M.2 Memória RAM: 8gb Sistema operacional: Windows 11 Home Portas: no mínimo 2 portas USB 3.2; NO MÍNIMO 1 PORTA USB-C; 1 porta Audio Jack;1 porta HDMI; 1 porta RJ45, WIFI, BLUETOOTH Câmera HD de 720p a 30FPS com microfone único integrado. Teclado:Portugues-BR Acompanhado de fonte carregadora, manual em português, Maleta para transporte e possuir. Garantia do fabricante: 1 ano de garantia (12 Meses)</t>
   </si>
   <si>
     <t>Unidade</t>
